--- a/01_DESIGN_FILES/PROJECT OUTPUTS/ASSEMBLY/Bill of Materials-Van Battery Controller V1(ORIGINAL).xlsx
+++ b/01_DESIGN_FILES/PROJECT OUTPUTS/ASSEMBLY/Bill of Materials-Van Battery Controller V1(ORIGINAL).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\SprinterVanBattery\01_DESIGN_FILES\PROJECT OUTPUTS\ASSEMBLY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BFE967-74FF-41F9-A747-E411967F6DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A54E0E-DB21-402F-9780-A35883CA270E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1150" yWindow="3990" windowWidth="19160" windowHeight="14230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9740" yWindow="840" windowWidth="25730" windowHeight="18410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part List Report" sheetId="3" r:id="rId1"/>
@@ -1186,7 +1186,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1506,11 +1506,35 @@
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1520,28 +1544,7 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2026,8 +2029,8 @@
   </sheetPr>
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2225,11 +2228,11 @@
       <c r="D8" s="22"/>
       <c r="E8" s="29">
         <f ca="1">TODAY()</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
       <c r="F8" s="26">
         <f ca="1">NOW()</f>
-        <v>44852.41962523148</v>
+        <v>44854.389323148149</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="7"/>
@@ -2247,24 +2250,24 @@
       <c r="B9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="117"/>
+      <c r="D9" s="115"/>
       <c r="E9" s="51" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="116" t="s">
+      <c r="G9" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="117"/>
-      <c r="I9" s="116" t="s">
+      <c r="H9" s="115"/>
+      <c r="I9" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="117"/>
+      <c r="J9" s="115"/>
       <c r="K9" s="51" t="s">
         <v>22</v>
       </c>
@@ -2292,24 +2295,24 @@
       <c r="B10" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="117"/>
+      <c r="D10" s="115"/>
       <c r="E10" s="51" t="s">
         <v>77</v>
       </c>
       <c r="F10" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="116" t="s">
+      <c r="G10" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="117"/>
-      <c r="I10" s="116" t="s">
+      <c r="H10" s="115"/>
+      <c r="I10" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="J10" s="117"/>
+      <c r="J10" s="115"/>
       <c r="K10" s="51" t="s">
         <v>180</v>
       </c>
@@ -2338,24 +2341,24 @@
         <f t="shared" ref="B11:B50" si="0">ROW(B11) - ROW($B$10)</f>
         <v>1</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="112"/>
+      <c r="D11" s="116"/>
       <c r="E11" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="122" t="s">
+      <c r="F11" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="112" t="s">
+      <c r="G11" s="116" t="s">
         <v>140</v>
       </c>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112" t="s">
+      <c r="H11" s="116"/>
+      <c r="I11" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="J11" s="112"/>
+      <c r="J11" s="116"/>
       <c r="K11" s="74" t="s">
         <v>181</v>
       </c>
@@ -2385,22 +2388,22 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C12" s="113" t="s">
+      <c r="C12" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="113"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="122" t="s">
+      <c r="F12" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113" t="s">
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="J12" s="113"/>
+      <c r="J12" s="117"/>
       <c r="K12" s="70" t="s">
         <v>182</v>
       </c>
@@ -2430,24 +2433,24 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C13" s="112" t="s">
+      <c r="C13" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="112"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="122" t="s">
+      <c r="F13" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="112" t="s">
+      <c r="G13" s="116" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112" t="s">
+      <c r="H13" s="116"/>
+      <c r="I13" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="J13" s="112"/>
+      <c r="J13" s="116"/>
       <c r="K13" s="102" t="s">
         <v>183</v>
       </c>
@@ -2477,24 +2480,24 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C14" s="113" t="s">
+      <c r="C14" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="113"/>
+      <c r="D14" s="117"/>
       <c r="E14" s="103" t="s">
         <v>80</v>
       </c>
       <c r="F14" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="113" t="s">
+      <c r="G14" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113" t="s">
+      <c r="H14" s="117"/>
+      <c r="I14" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="J14" s="113"/>
+      <c r="J14" s="117"/>
       <c r="K14" s="103" t="s">
         <v>184</v>
       </c>
@@ -2524,24 +2527,24 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="112"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="102" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="116" t="s">
         <v>143</v>
       </c>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112" t="s">
+      <c r="H15" s="116"/>
+      <c r="I15" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="J15" s="112"/>
+      <c r="J15" s="116"/>
       <c r="K15" s="102" t="s">
         <v>185</v>
       </c>
@@ -2571,24 +2574,24 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C16" s="113" t="s">
+      <c r="C16" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="113"/>
+      <c r="D16" s="117"/>
       <c r="E16" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="122" t="s">
+      <c r="F16" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="113" t="s">
+      <c r="G16" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113" t="s">
+      <c r="H16" s="117"/>
+      <c r="I16" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="J16" s="113"/>
+      <c r="J16" s="117"/>
       <c r="K16" s="103" t="s">
         <v>186</v>
       </c>
@@ -2618,24 +2621,24 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="112"/>
+      <c r="D17" s="116"/>
       <c r="E17" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="102" t="s">
+      <c r="F17" s="112" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="112" t="s">
+      <c r="G17" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112" t="s">
+      <c r="H17" s="116"/>
+      <c r="I17" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="J17" s="112"/>
+      <c r="J17" s="116"/>
       <c r="K17" s="102" t="s">
         <v>187</v>
       </c>
@@ -2665,24 +2668,24 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="113"/>
+      <c r="D18" s="117"/>
       <c r="E18" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="123" t="s">
+      <c r="F18" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="G18" s="113" t="s">
+      <c r="G18" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113" t="s">
+      <c r="H18" s="117"/>
+      <c r="I18" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="J18" s="113"/>
+      <c r="J18" s="117"/>
       <c r="K18" s="103" t="s">
         <v>188</v>
       </c>
@@ -2712,22 +2715,22 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="112"/>
+      <c r="D19" s="116"/>
       <c r="E19" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="122" t="s">
+      <c r="F19" s="112" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112" t="s">
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="J19" s="112"/>
+      <c r="J19" s="116"/>
       <c r="K19" s="102" t="s">
         <v>189</v>
       </c>
@@ -2757,24 +2760,24 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C20" s="113" t="s">
+      <c r="C20" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="113"/>
+      <c r="D20" s="117"/>
       <c r="E20" s="103" t="s">
         <v>85</v>
       </c>
       <c r="F20" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="113" t="s">
+      <c r="G20" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113" t="s">
+      <c r="H20" s="117"/>
+      <c r="I20" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="J20" s="113"/>
+      <c r="J20" s="117"/>
       <c r="K20" s="103" t="s">
         <v>190</v>
       </c>
@@ -2804,24 +2807,24 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="112"/>
+      <c r="D21" s="116"/>
       <c r="E21" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="122" t="s">
+      <c r="F21" s="112" t="s">
         <v>115</v>
       </c>
-      <c r="G21" s="112" t="s">
+      <c r="G21" s="116" t="s">
         <v>148</v>
       </c>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112" t="s">
+      <c r="H21" s="116"/>
+      <c r="I21" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="J21" s="112"/>
+      <c r="J21" s="116"/>
       <c r="K21" s="102" t="s">
         <v>191</v>
       </c>
@@ -2851,24 +2854,24 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="113"/>
+      <c r="D22" s="117"/>
       <c r="E22" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="122">
+      <c r="F22" s="124">
         <v>532580629</v>
       </c>
-      <c r="G22" s="113" t="s">
+      <c r="G22" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113" t="s">
+      <c r="H22" s="117"/>
+      <c r="I22" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="J22" s="113"/>
+      <c r="J22" s="117"/>
       <c r="K22" s="103" t="s">
         <v>192</v>
       </c>
@@ -2898,24 +2901,24 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C23" s="112" t="s">
+      <c r="C23" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="112"/>
+      <c r="D23" s="116"/>
       <c r="E23" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="122">
+      <c r="F23" s="112">
         <v>141355145000</v>
       </c>
-      <c r="G23" s="112" t="s">
+      <c r="G23" s="116" t="s">
         <v>150</v>
       </c>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112" t="s">
+      <c r="H23" s="116"/>
+      <c r="I23" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="J23" s="112"/>
+      <c r="J23" s="116"/>
       <c r="K23" s="102" t="s">
         <v>193</v>
       </c>
@@ -2945,24 +2948,24 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C24" s="113" t="s">
+      <c r="C24" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="113"/>
+      <c r="D24" s="117"/>
       <c r="E24" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="123" t="s">
+      <c r="F24" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="G24" s="113" t="s">
+      <c r="G24" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113" t="s">
+      <c r="H24" s="117"/>
+      <c r="I24" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="J24" s="113"/>
+      <c r="J24" s="117"/>
       <c r="K24" s="103" t="s">
         <v>194</v>
       </c>
@@ -2992,24 +2995,24 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C25" s="112" t="s">
+      <c r="C25" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="112"/>
+      <c r="D25" s="116"/>
       <c r="E25" s="102" t="s">
         <v>89</v>
       </c>
       <c r="F25" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="G25" s="112" t="s">
+      <c r="G25" s="116" t="s">
         <v>152</v>
       </c>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112" t="s">
+      <c r="H25" s="116"/>
+      <c r="I25" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="J25" s="112"/>
+      <c r="J25" s="116"/>
       <c r="K25" s="102" t="s">
         <v>195</v>
       </c>
@@ -3039,24 +3042,24 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C26" s="113" t="s">
+      <c r="C26" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="113"/>
+      <c r="D26" s="117"/>
       <c r="E26" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="122" t="s">
+      <c r="F26" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="113" t="s">
+      <c r="G26" s="117" t="s">
         <v>153</v>
       </c>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113" t="s">
+      <c r="H26" s="117"/>
+      <c r="I26" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="J26" s="113"/>
+      <c r="J26" s="117"/>
       <c r="K26" s="103" t="s">
         <v>196</v>
       </c>
@@ -3086,24 +3089,24 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C27" s="112" t="s">
+      <c r="C27" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="112"/>
+      <c r="D27" s="116"/>
       <c r="E27" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="123" t="s">
+      <c r="F27" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="112" t="s">
+      <c r="G27" s="116" t="s">
         <v>154</v>
       </c>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112" t="s">
+      <c r="H27" s="116"/>
+      <c r="I27" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="J27" s="112"/>
+      <c r="J27" s="116"/>
       <c r="K27" s="102" t="s">
         <v>197</v>
       </c>
@@ -3133,24 +3136,24 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C28" s="113" t="s">
+      <c r="C28" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="113"/>
+      <c r="D28" s="117"/>
       <c r="E28" s="103" t="s">
         <v>91</v>
       </c>
       <c r="F28" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="113" t="s">
+      <c r="G28" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113" t="s">
+      <c r="H28" s="117"/>
+      <c r="I28" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="J28" s="113"/>
+      <c r="J28" s="117"/>
       <c r="K28" s="103" t="s">
         <v>198</v>
       </c>
@@ -3180,24 +3183,24 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C29" s="112" t="s">
+      <c r="C29" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="112"/>
+      <c r="D29" s="116"/>
       <c r="E29" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="123" t="s">
+      <c r="F29" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="G29" s="112" t="s">
+      <c r="G29" s="116" t="s">
         <v>156</v>
       </c>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112" t="s">
+      <c r="H29" s="116"/>
+      <c r="I29" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="J29" s="112"/>
+      <c r="J29" s="116"/>
       <c r="K29" s="102" t="s">
         <v>199</v>
       </c>
@@ -3227,24 +3230,24 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="113"/>
+      <c r="D30" s="117"/>
       <c r="E30" s="103" t="s">
         <v>93</v>
       </c>
       <c r="F30" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="113" t="s">
+      <c r="G30" s="117" t="s">
         <v>157</v>
       </c>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113" t="s">
+      <c r="H30" s="117"/>
+      <c r="I30" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="J30" s="113"/>
+      <c r="J30" s="117"/>
       <c r="K30" s="103" t="s">
         <v>200</v>
       </c>
@@ -3274,24 +3277,24 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C31" s="112" t="s">
+      <c r="C31" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="112"/>
+      <c r="D31" s="116"/>
       <c r="E31" s="102" t="s">
         <v>94</v>
       </c>
       <c r="F31" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="112" t="s">
+      <c r="G31" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112" t="s">
+      <c r="H31" s="116"/>
+      <c r="I31" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="J31" s="112"/>
+      <c r="J31" s="116"/>
       <c r="K31" s="102" t="s">
         <v>201</v>
       </c>
@@ -3321,24 +3324,24 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C32" s="113" t="s">
+      <c r="C32" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="113"/>
+      <c r="D32" s="117"/>
       <c r="E32" s="103" t="s">
         <v>94</v>
       </c>
       <c r="F32" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="G32" s="113" t="s">
+      <c r="G32" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113" t="s">
+      <c r="H32" s="117"/>
+      <c r="I32" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="J32" s="113"/>
+      <c r="J32" s="117"/>
       <c r="K32" s="103" t="s">
         <v>202</v>
       </c>
@@ -3368,24 +3371,24 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C33" s="112" t="s">
+      <c r="C33" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="112"/>
+      <c r="D33" s="116"/>
       <c r="E33" s="102" t="s">
         <v>94</v>
       </c>
       <c r="F33" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="G33" s="112" t="s">
+      <c r="G33" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112" t="s">
+      <c r="H33" s="116"/>
+      <c r="I33" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="J33" s="112"/>
+      <c r="J33" s="116"/>
       <c r="K33" s="102" t="s">
         <v>203</v>
       </c>
@@ -3415,24 +3418,24 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C34" s="113" t="s">
+      <c r="C34" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="113"/>
+      <c r="D34" s="117"/>
       <c r="E34" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="122">
+      <c r="F34" s="112">
         <v>61300611121</v>
       </c>
-      <c r="G34" s="113" t="s">
+      <c r="G34" s="117" t="s">
         <v>161</v>
       </c>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113" t="s">
+      <c r="H34" s="117"/>
+      <c r="I34" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="J34" s="113"/>
+      <c r="J34" s="117"/>
       <c r="K34" s="103" t="s">
         <v>204</v>
       </c>
@@ -3462,24 +3465,24 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C35" s="112" t="s">
+      <c r="C35" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="112"/>
+      <c r="D35" s="116"/>
       <c r="E35" s="102" t="s">
         <v>95</v>
       </c>
       <c r="F35" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="G35" s="112" t="s">
+      <c r="G35" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112" t="s">
+      <c r="H35" s="116"/>
+      <c r="I35" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="J35" s="112"/>
+      <c r="J35" s="116"/>
       <c r="K35" s="102" t="s">
         <v>205</v>
       </c>
@@ -3509,24 +3512,24 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C36" s="113" t="s">
+      <c r="C36" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="113"/>
+      <c r="D36" s="117"/>
       <c r="E36" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="F36" s="122">
+      <c r="F36" s="112">
         <v>61300211121</v>
       </c>
-      <c r="G36" s="113" t="s">
+      <c r="G36" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113" t="s">
+      <c r="H36" s="117"/>
+      <c r="I36" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="J36" s="113"/>
+      <c r="J36" s="117"/>
       <c r="K36" s="103" t="s">
         <v>206</v>
       </c>
@@ -3556,24 +3559,24 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C37" s="112" t="s">
+      <c r="C37" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="112"/>
+      <c r="D37" s="116"/>
       <c r="E37" s="102" t="s">
         <v>96</v>
       </c>
       <c r="F37" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="G37" s="112" t="s">
+      <c r="G37" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112" t="s">
+      <c r="H37" s="116"/>
+      <c r="I37" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="J37" s="112"/>
+      <c r="J37" s="116"/>
       <c r="K37" s="102" t="s">
         <v>207</v>
       </c>
@@ -3603,24 +3606,24 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C38" s="113" t="s">
+      <c r="C38" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="113"/>
+      <c r="D38" s="117"/>
       <c r="E38" s="103" t="s">
         <v>97</v>
       </c>
       <c r="F38" s="103" t="s">
         <v>128</v>
       </c>
-      <c r="G38" s="113" t="s">
+      <c r="G38" s="117" t="s">
         <v>165</v>
       </c>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113" t="s">
+      <c r="H38" s="117"/>
+      <c r="I38" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="J38" s="113"/>
+      <c r="J38" s="117"/>
       <c r="K38" s="103" t="s">
         <v>208</v>
       </c>
@@ -3650,24 +3653,24 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C39" s="112" t="s">
+      <c r="C39" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="112"/>
+      <c r="D39" s="116"/>
       <c r="E39" s="102" t="s">
         <v>93</v>
       </c>
       <c r="F39" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="G39" s="112" t="s">
+      <c r="G39" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="H39" s="112"/>
-      <c r="I39" s="112" t="s">
+      <c r="H39" s="116"/>
+      <c r="I39" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="J39" s="112"/>
+      <c r="J39" s="116"/>
       <c r="K39" s="102" t="s">
         <v>209</v>
       </c>
@@ -3691,24 +3694,24 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C40" s="113" t="s">
+      <c r="C40" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="113"/>
+      <c r="D40" s="117"/>
       <c r="E40" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="F40" s="123" t="s">
+      <c r="F40" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="G40" s="113" t="s">
+      <c r="G40" s="117" t="s">
         <v>167</v>
       </c>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113" t="s">
+      <c r="H40" s="117"/>
+      <c r="I40" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="J40" s="113"/>
+      <c r="J40" s="117"/>
       <c r="K40" s="103" t="s">
         <v>210</v>
       </c>
@@ -3732,24 +3735,24 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C41" s="112" t="s">
+      <c r="C41" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="112"/>
+      <c r="D41" s="116"/>
       <c r="E41" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="123" t="s">
+      <c r="F41" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="G41" s="112" t="s">
+      <c r="G41" s="116" t="s">
         <v>168</v>
       </c>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112" t="s">
+      <c r="H41" s="116"/>
+      <c r="I41" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="J41" s="112"/>
+      <c r="J41" s="116"/>
       <c r="K41" s="102" t="s">
         <v>211</v>
       </c>
@@ -3773,24 +3776,24 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C42" s="113" t="s">
+      <c r="C42" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="113"/>
+      <c r="D42" s="117"/>
       <c r="E42" s="103" t="s">
         <v>94</v>
       </c>
       <c r="F42" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="113" t="s">
+      <c r="G42" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113" t="s">
+      <c r="H42" s="117"/>
+      <c r="I42" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="J42" s="113"/>
+      <c r="J42" s="117"/>
       <c r="K42" s="103" t="s">
         <v>212</v>
       </c>
@@ -3814,24 +3817,24 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C43" s="112" t="s">
+      <c r="C43" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="112"/>
+      <c r="D43" s="116"/>
       <c r="E43" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="F43" s="122">
+      <c r="F43" s="112">
         <v>1720420201</v>
       </c>
-      <c r="G43" s="112" t="s">
+      <c r="G43" s="116" t="s">
         <v>170</v>
       </c>
-      <c r="H43" s="112"/>
-      <c r="I43" s="112" t="s">
+      <c r="H43" s="116"/>
+      <c r="I43" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="J43" s="112"/>
+      <c r="J43" s="116"/>
       <c r="K43" s="102" t="s">
         <v>213</v>
       </c>
@@ -3855,24 +3858,24 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C44" s="113" t="s">
+      <c r="C44" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="113"/>
+      <c r="D44" s="117"/>
       <c r="E44" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="122" t="s">
+      <c r="F44" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="G44" s="113" t="s">
+      <c r="G44" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113" t="s">
+      <c r="H44" s="117"/>
+      <c r="I44" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="J44" s="113"/>
+      <c r="J44" s="117"/>
       <c r="K44" s="103" t="s">
         <v>214</v>
       </c>
@@ -3896,24 +3899,24 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C45" s="112" t="s">
+      <c r="C45" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="112"/>
+      <c r="D45" s="116"/>
       <c r="E45" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="F45" s="122" t="s">
+      <c r="F45" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="G45" s="112" t="s">
+      <c r="G45" s="116" t="s">
         <v>172</v>
       </c>
-      <c r="H45" s="112"/>
-      <c r="I45" s="112" t="s">
+      <c r="H45" s="116"/>
+      <c r="I45" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="J45" s="112"/>
+      <c r="J45" s="116"/>
       <c r="K45" s="102" t="s">
         <v>215</v>
       </c>
@@ -3937,24 +3940,24 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C46" s="113" t="s">
+      <c r="C46" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="113"/>
+      <c r="D46" s="117"/>
       <c r="E46" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F46" s="122" t="s">
+      <c r="F46" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="G46" s="113" t="s">
+      <c r="G46" s="117" t="s">
         <v>173</v>
       </c>
-      <c r="H46" s="113"/>
-      <c r="I46" s="113" t="s">
+      <c r="H46" s="117"/>
+      <c r="I46" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="J46" s="113"/>
+      <c r="J46" s="117"/>
       <c r="K46" s="103" t="s">
         <v>216</v>
       </c>
@@ -3978,24 +3981,24 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C47" s="112" t="s">
+      <c r="C47" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="112"/>
+      <c r="D47" s="116"/>
       <c r="E47" s="102" t="s">
         <v>88</v>
       </c>
       <c r="F47" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="G47" s="112" t="s">
+      <c r="G47" s="116" t="s">
         <v>174</v>
       </c>
-      <c r="H47" s="112"/>
-      <c r="I47" s="112" t="s">
+      <c r="H47" s="116"/>
+      <c r="I47" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="J47" s="112"/>
+      <c r="J47" s="116"/>
       <c r="K47" s="102" t="s">
         <v>217</v>
       </c>
@@ -4019,24 +4022,24 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C48" s="113" t="s">
+      <c r="C48" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="113"/>
+      <c r="D48" s="117"/>
       <c r="E48" s="103" t="s">
         <v>88</v>
       </c>
       <c r="F48" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="G48" s="113" t="s">
+      <c r="G48" s="117" t="s">
         <v>175</v>
       </c>
-      <c r="H48" s="113"/>
-      <c r="I48" s="113" t="s">
+      <c r="H48" s="117"/>
+      <c r="I48" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="J48" s="113"/>
+      <c r="J48" s="117"/>
       <c r="K48" s="103" t="s">
         <v>218</v>
       </c>
@@ -4060,24 +4063,24 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C49" s="112" t="s">
+      <c r="C49" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="112"/>
+      <c r="D49" s="116"/>
       <c r="E49" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="F49" s="122" t="s">
+      <c r="F49" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="G49" s="112" t="s">
+      <c r="G49" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="H49" s="112"/>
-      <c r="I49" s="112" t="s">
+      <c r="H49" s="116"/>
+      <c r="I49" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="J49" s="112"/>
+      <c r="J49" s="116"/>
       <c r="K49" s="102" t="s">
         <v>219</v>
       </c>
@@ -4101,24 +4104,24 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C50" s="113" t="s">
+      <c r="C50" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="113"/>
+      <c r="D50" s="117"/>
       <c r="E50" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="F50" s="122" t="s">
+      <c r="F50" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="G50" s="113" t="s">
+      <c r="G50" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="H50" s="113"/>
-      <c r="I50" s="113" t="s">
+      <c r="H50" s="117"/>
+      <c r="I50" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="J50" s="113"/>
+      <c r="J50" s="117"/>
       <c r="K50" s="103" t="s">
         <v>220</v>
       </c>
@@ -4165,10 +4168,10 @@
     </row>
     <row r="52" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="44"/>
-      <c r="B52" s="114" t="s">
+      <c r="B52" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="115"/>
+      <c r="C52" s="123"/>
       <c r="D52" s="94"/>
       <c r="E52" s="95"/>
       <c r="F52" s="98" t="s">
@@ -4281,36 +4284,63 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -4331,85 +4361,58 @@
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="G23:H23"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="L11:L50">
